--- a/data/trans_camb/P36B14_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P36B14_R-Estudios-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,4</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,59; -14,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,3; -13,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,78; -15,06</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,72%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,42; -16,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,41; -14,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,14; -16,27</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,06</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,55; -8,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,52; -3,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,09; -7,06</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,31%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,03; -10,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,66; -4,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,69; -8,67</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,44</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,61; -3,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,93; -1,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,38; -3,57</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,31%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,06; -4,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,88; -1,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,48; -4,13</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,22</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,42; -10,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,67; -7,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,62; -9,35</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,43%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,11%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,12; -12,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,38; -8,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,68; -10,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P36B14_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P36B14_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-18,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-16,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-17,4</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,59; -14,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,3; -13,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,78; -15,06</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-20,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-17,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,72%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,42; -16,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,41; -14,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,14; -16,27</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-12,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,06</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,55; -8,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,52; -3,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,09; -7,06</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,31%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,03; -10,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,66; -4,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,69; -8,67</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,44</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,61; -3,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,93; -1,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,38; -3,57</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-9,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,31%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,06; -4,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,88; -1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,48; -4,13</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-13,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,22</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,42; -10,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,67; -7,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,62; -9,35</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-15,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-11,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-13,11%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,12; -12,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,38; -8,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,68; -10,98</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
